--- a/data/input/absenteeism_data_23.xlsx
+++ b/data/input/absenteeism_data_23.xlsx
@@ -476,103 +476,103 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>23881</v>
+        <v>87805</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Caio Lopes</t>
+          <t>Dr. Vicente da Rosa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45103</v>
+        <v>45086</v>
       </c>
       <c r="G2" t="n">
-        <v>5776.95</v>
+        <v>4087.41</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1607</v>
+        <v>73882</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Luigi Peixoto</t>
+          <t>Sr. Diogo da Costa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45091</v>
+        <v>45104</v>
       </c>
       <c r="G3" t="n">
-        <v>8048.63</v>
+        <v>5107.99</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>55743</v>
+        <v>49575</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>João Felipe Sales</t>
+          <t>Augusto Barbosa</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45082</v>
+        <v>45081</v>
       </c>
       <c r="G4" t="n">
-        <v>4191.7</v>
+        <v>5397.05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>55642</v>
+        <v>98102</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nina Martins</t>
+          <t>Melissa Oliveira</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,172 +581,172 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45105</v>
+        <v>45082</v>
       </c>
       <c r="G5" t="n">
-        <v>9110.1</v>
+        <v>9403.129999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>16770</v>
+        <v>10062</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>João Felipe Fernandes</t>
+          <t>Yago Jesus</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45091</v>
+        <v>45081</v>
       </c>
       <c r="G6" t="n">
-        <v>10289.49</v>
+        <v>9363.309999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7222</v>
+        <v>89366</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sr. Thales Rocha</t>
+          <t>Dra. Maria Alice Azevedo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>4</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45081</v>
+        <v>45102</v>
       </c>
       <c r="G7" t="n">
-        <v>6396</v>
+        <v>2522.07</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>18476</v>
+        <v>61506</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Mariane Novaes</t>
+          <t>Vinicius Fogaça</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45083</v>
+        <v>45092</v>
       </c>
       <c r="G8" t="n">
-        <v>11379.63</v>
+        <v>8023.36</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2546</v>
+        <v>96918</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Lívia da Cunha</t>
+          <t>Luigi Rezende</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45099</v>
+        <v>45087</v>
       </c>
       <c r="G9" t="n">
-        <v>12128.9</v>
+        <v>9795.299999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>82162</v>
+        <v>28295</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Mirella Monteiro</t>
+          <t>Heloísa Melo</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45101</v>
+        <v>45099</v>
       </c>
       <c r="G10" t="n">
-        <v>4151.68</v>
+        <v>3129.29</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>33449</v>
+        <v>42664</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sr. Arthur Moura</t>
+          <t>Nicolas Caldeira</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45105</v>
+        <v>45089</v>
       </c>
       <c r="G11" t="n">
-        <v>7957.61</v>
+        <v>8522.09</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_23.xlsx
+++ b/data/input/absenteeism_data_23.xlsx
@@ -476,132 +476,132 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>87805</v>
+        <v>87172</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dr. Vicente da Rosa</t>
+          <t>Beatriz Campos</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>45086</v>
       </c>
       <c r="G2" t="n">
-        <v>4087.41</v>
+        <v>5429.23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>73882</v>
+        <v>77170</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sr. Diogo da Costa</t>
+          <t>Ian da Mata</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45104</v>
+        <v>45092</v>
       </c>
       <c r="G3" t="n">
-        <v>5107.99</v>
+        <v>9051.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>49575</v>
+        <v>78117</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Augusto Barbosa</t>
+          <t>Luiza Martins</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45081</v>
+        <v>45089</v>
       </c>
       <c r="G4" t="n">
-        <v>5397.05</v>
+        <v>10316.89</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>98102</v>
+        <v>7309</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Melissa Oliveira</t>
+          <t>Thales das Neves</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>2</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45082</v>
+        <v>45095</v>
       </c>
       <c r="G5" t="n">
-        <v>9403.129999999999</v>
+        <v>7771.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>10062</v>
+        <v>53918</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Yago Jesus</t>
+          <t>Raul Duarte</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,158 +610,158 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45081</v>
+        <v>45083</v>
       </c>
       <c r="G6" t="n">
-        <v>9363.309999999999</v>
+        <v>4688.27</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>89366</v>
+        <v>42168</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dra. Maria Alice Azevedo</t>
+          <t>Dra. Rebeca Melo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45102</v>
+        <v>45100</v>
       </c>
       <c r="G7" t="n">
-        <v>2522.07</v>
+        <v>4719.86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>61506</v>
+        <v>97634</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Vinicius Fogaça</t>
+          <t>Sophia Lopes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45092</v>
+        <v>45102</v>
       </c>
       <c r="G8" t="n">
-        <v>8023.36</v>
+        <v>7202.25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>96918</v>
+        <v>76215</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Luigi Rezende</t>
+          <t>Dra. Natália Pires</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45087</v>
+        <v>45104</v>
       </c>
       <c r="G9" t="n">
-        <v>9795.299999999999</v>
+        <v>12131.66</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>28295</v>
+        <v>93290</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Heloísa Melo</t>
+          <t>Evelyn Caldeira</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45099</v>
+        <v>45091</v>
       </c>
       <c r="G10" t="n">
-        <v>3129.29</v>
+        <v>10945.07</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>42664</v>
+        <v>98443</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Nicolas Caldeira</t>
+          <t>Luna Almeida</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45089</v>
+        <v>45103</v>
       </c>
       <c r="G11" t="n">
-        <v>8522.09</v>
+        <v>9116.73</v>
       </c>
     </row>
   </sheetData>
